--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H2">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I2">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J2">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.9110121915341</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N2">
-        <v>30.9110121915341</v>
+        <v>108.050464</v>
       </c>
       <c r="O2">
-        <v>0.8971396701936101</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P2">
-        <v>0.8971396701936101</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q2">
-        <v>226.4564369703124</v>
+        <v>321.8709989628871</v>
       </c>
       <c r="R2">
-        <v>226.4564369703124</v>
+        <v>2896.838990665984</v>
       </c>
       <c r="S2">
-        <v>0.1520729087210291</v>
+        <v>0.1676347466137618</v>
       </c>
       <c r="T2">
-        <v>0.1520729087210291</v>
+        <v>0.1676347466137618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H3">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I3">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J3">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.647754508802609</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
-        <v>0.647754508802609</v>
+        <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01879997532247603</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P3">
-        <v>0.01879997532247603</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q3">
-        <v>4.745499021059834</v>
+        <v>5.858789622099556</v>
       </c>
       <c r="R3">
-        <v>4.745499021059834</v>
+        <v>52.729106598896</v>
       </c>
       <c r="S3">
-        <v>0.003186757899754347</v>
+        <v>0.003051336457551556</v>
       </c>
       <c r="T3">
-        <v>0.003186757899754347</v>
+        <v>0.003051336457551556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H4">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I4">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J4">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.04547765709317</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N4">
-        <v>1.04547765709317</v>
+        <v>2.236249</v>
       </c>
       <c r="O4">
-        <v>0.03034321473097013</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P4">
-        <v>0.03034321473097013</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q4">
-        <v>7.659249192177272</v>
+        <v>6.661551213327111</v>
       </c>
       <c r="R4">
-        <v>7.659249192177272</v>
+        <v>59.953960919944</v>
       </c>
       <c r="S4">
-        <v>0.005143436498677608</v>
+        <v>0.003469425494371577</v>
       </c>
       <c r="T4">
-        <v>0.005143436498677608</v>
+        <v>0.003469425494371576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H5">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I5">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J5">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.97320244330446</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N5">
-        <v>0.97320244330446</v>
+        <v>3.375662</v>
       </c>
       <c r="O5">
-        <v>0.02824554930805219</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P5">
-        <v>0.02824554930805219</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q5">
-        <v>7.12975545400905</v>
+        <v>10.05574302856355</v>
       </c>
       <c r="R5">
-        <v>7.12975545400905</v>
+        <v>90.50168725707201</v>
       </c>
       <c r="S5">
-        <v>0.004787864124625956</v>
+        <v>0.005237166256164384</v>
       </c>
       <c r="T5">
-        <v>0.004787864124625956</v>
+        <v>0.005237166256164383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H6">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I6">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J6">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.877625490142341</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N6">
-        <v>0.877625490142341</v>
+        <v>2.938577</v>
       </c>
       <c r="O6">
-        <v>0.02547159044489152</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P6">
-        <v>0.02547159044489152</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q6">
-        <v>6.429551392897788</v>
+        <v>8.753712658923556</v>
       </c>
       <c r="R6">
-        <v>6.429551392897788</v>
+        <v>78.78341393031199</v>
       </c>
       <c r="S6">
-        <v>0.00431765418183936</v>
+        <v>0.00455905132253785</v>
       </c>
       <c r="T6">
-        <v>0.00431765418183936</v>
+        <v>0.004559051322537849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6774194795853</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H7">
-        <v>11.6774194795853</v>
+        <v>26.810056</v>
       </c>
       <c r="I7">
-        <v>0.270188729853607</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J7">
-        <v>0.270188729853607</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.9110121915341</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N7">
-        <v>30.9110121915341</v>
+        <v>3.081851</v>
       </c>
       <c r="O7">
-        <v>0.8971396701936101</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P7">
-        <v>0.8971396701936101</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q7">
-        <v>360.960855899119</v>
+        <v>9.180510877072889</v>
       </c>
       <c r="R7">
-        <v>360.960855899119</v>
+        <v>82.624597893656</v>
       </c>
       <c r="S7">
-        <v>0.2423970279908954</v>
+        <v>0.0047813335765626</v>
       </c>
       <c r="T7">
-        <v>0.2423970279908954</v>
+        <v>0.004781333576562599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H8">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J8">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.647754508802609</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N8">
-        <v>0.647754508802609</v>
+        <v>108.050464</v>
       </c>
       <c r="O8">
-        <v>0.01879997532247603</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P8">
-        <v>0.01879997532247603</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q8">
-        <v>7.564101119080794</v>
+        <v>423.2550134574436</v>
       </c>
       <c r="R8">
-        <v>7.564101119080794</v>
+        <v>3809.295121116992</v>
       </c>
       <c r="S8">
-        <v>0.005079541453658953</v>
+        <v>0.2204369053520226</v>
       </c>
       <c r="T8">
-        <v>0.005079541453658953</v>
+        <v>0.2204369053520225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H9">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J9">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.04547765709317</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
-        <v>1.04547765709317</v>
+        <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.03034321473097013</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P9">
-        <v>0.03034321473097013</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q9">
-        <v>12.20848115841098</v>
+        <v>7.704210967549779</v>
       </c>
       <c r="R9">
-        <v>12.20848115841098</v>
+        <v>69.33789870794801</v>
       </c>
       <c r="S9">
-        <v>0.008198394647836078</v>
+        <v>0.004012456721995901</v>
       </c>
       <c r="T9">
-        <v>0.008198394647836078</v>
+        <v>0.004012456721995901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H10">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J10">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.97320244330446</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N10">
-        <v>0.97320244330446</v>
+        <v>2.236249</v>
       </c>
       <c r="O10">
-        <v>0.02824554930805219</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P10">
-        <v>0.02824554930805219</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q10">
-        <v>11.36449316902351</v>
+        <v>8.759829116413556</v>
       </c>
       <c r="R10">
-        <v>11.36449316902351</v>
+        <v>78.838462047722</v>
       </c>
       <c r="S10">
-        <v>0.007631629091560051</v>
+        <v>0.00456223685588759</v>
       </c>
       <c r="T10">
-        <v>0.007631629091560051</v>
+        <v>0.004562236855887588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H11">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J11">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.877625490142341</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N11">
-        <v>0.877625490142341</v>
+        <v>3.375662</v>
       </c>
       <c r="O11">
-        <v>0.02547159044489152</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P11">
-        <v>0.02547159044489152</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q11">
-        <v>10.24840099436877</v>
+        <v>13.22313493478178</v>
       </c>
       <c r="R11">
-        <v>10.24840099436877</v>
+        <v>119.008214413036</v>
       </c>
       <c r="S11">
-        <v>0.006882136669656514</v>
+        <v>0.006886786574043951</v>
       </c>
       <c r="T11">
-        <v>0.006882136669656514</v>
+        <v>0.00688678657404395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.11714511615556</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H12">
-        <v>2.11714511615556</v>
+        <v>35.254778</v>
       </c>
       <c r="I12">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J12">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.9110121915341</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N12">
-        <v>30.9110121915341</v>
+        <v>2.938577</v>
       </c>
       <c r="O12">
-        <v>0.8971396701936101</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P12">
-        <v>0.8971396701936101</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q12">
-        <v>65.44309849673139</v>
+        <v>11.51098664121178</v>
       </c>
       <c r="R12">
-        <v>65.44309849673139</v>
+        <v>103.598879770906</v>
       </c>
       <c r="S12">
-        <v>0.04394718241292225</v>
+        <v>0.005995076708033669</v>
       </c>
       <c r="T12">
-        <v>0.04394718241292225</v>
+        <v>0.005995076708033668</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.11714511615556</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H13">
-        <v>2.11714511615556</v>
+        <v>35.254778</v>
       </c>
       <c r="I13">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J13">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.647754508802609</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N13">
-        <v>0.647754508802609</v>
+        <v>3.081851</v>
       </c>
       <c r="O13">
-        <v>0.01879997532247603</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P13">
-        <v>0.01879997532247603</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q13">
-        <v>1.371390294779187</v>
+        <v>12.07221920378645</v>
       </c>
       <c r="R13">
-        <v>1.371390294779187</v>
+        <v>108.649972834078</v>
       </c>
       <c r="S13">
-        <v>0.0009209334647714204</v>
+        <v>0.006287374177273651</v>
       </c>
       <c r="T13">
-        <v>0.0009209334647714204</v>
+        <v>0.00628737417727365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H14">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I14">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J14">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.04547765709317</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N14">
-        <v>1.04547765709317</v>
+        <v>108.050464</v>
       </c>
       <c r="O14">
-        <v>0.03034321473097013</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P14">
-        <v>0.03034321473097013</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q14">
-        <v>2.213427915764562</v>
+        <v>103.5481212211911</v>
       </c>
       <c r="R14">
-        <v>2.213427915764562</v>
+        <v>931.93309099072</v>
       </c>
       <c r="S14">
-        <v>0.001486389284835252</v>
+        <v>0.05392925463672153</v>
       </c>
       <c r="T14">
-        <v>0.001486389284835252</v>
+        <v>0.05392925463672151</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H15">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I15">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J15">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.97320244330446</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
-        <v>0.97320244330446</v>
+        <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.02824554930805219</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P15">
-        <v>0.02824554930805219</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q15">
-        <v>2.060410799872696</v>
+        <v>1.884813046075556</v>
       </c>
       <c r="R15">
-        <v>2.060410799872696</v>
+        <v>16.96331741468</v>
       </c>
       <c r="S15">
-        <v>0.001383633283685108</v>
+        <v>0.0009816359920939003</v>
       </c>
       <c r="T15">
-        <v>0.001383633283685108</v>
+        <v>0.0009816359920939001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H16">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I16">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J16">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.877625490142341</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N16">
-        <v>0.877625490142341</v>
+        <v>2.236249</v>
       </c>
       <c r="O16">
-        <v>0.02547159044489152</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P16">
-        <v>0.02547159044489152</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q16">
-        <v>1.858060520268487</v>
+        <v>2.143066988891111</v>
       </c>
       <c r="R16">
-        <v>1.858060520268487</v>
+        <v>19.28760290002</v>
       </c>
       <c r="S16">
-        <v>0.001247748448563554</v>
+        <v>0.001116138119981733</v>
       </c>
       <c r="T16">
-        <v>0.001247748448563554</v>
+        <v>0.001116138119981732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.527425629069</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H17">
-        <v>1.527425629069</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I17">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J17">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.9110121915341</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N17">
-        <v>30.9110121915341</v>
+        <v>3.375662</v>
       </c>
       <c r="O17">
-        <v>0.8971396701936101</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P17">
-        <v>0.8971396701936101</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q17">
-        <v>47.2142722418135</v>
+        <v>3.235001915195556</v>
       </c>
       <c r="R17">
-        <v>47.2142722418135</v>
+        <v>29.11501723676</v>
       </c>
       <c r="S17">
-        <v>0.03170592900346832</v>
+        <v>0.001684832520159327</v>
       </c>
       <c r="T17">
-        <v>0.03170592900346832</v>
+        <v>0.001684832520159327</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.527425629069</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H18">
-        <v>1.527425629069</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I18">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J18">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.647754508802609</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N18">
-        <v>0.647754508802609</v>
+        <v>2.938577</v>
       </c>
       <c r="O18">
-        <v>0.01879997532247603</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P18">
-        <v>0.01879997532247603</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q18">
-        <v>0.9893968380901061</v>
+        <v>2.816129761495556</v>
       </c>
       <c r="R18">
-        <v>0.9893968380901061</v>
+        <v>25.34516785346</v>
       </c>
       <c r="S18">
-        <v>0.0006644123570109706</v>
+        <v>0.001466678267134635</v>
       </c>
       <c r="T18">
-        <v>0.0006644123570109706</v>
+        <v>0.001466678267134634</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.527425629069</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H19">
-        <v>1.527425629069</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I19">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J19">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.04547765709317</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N19">
-        <v>1.04547765709317</v>
+        <v>3.081851</v>
       </c>
       <c r="O19">
-        <v>0.03034321473097013</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P19">
-        <v>0.03034321473097013</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q19">
-        <v>1.59688936806312</v>
+        <v>2.953433693108889</v>
       </c>
       <c r="R19">
-        <v>1.59688936806312</v>
+        <v>26.58090323798001</v>
       </c>
       <c r="S19">
-        <v>0.001072363472445168</v>
+        <v>0.001538188001963924</v>
       </c>
       <c r="T19">
-        <v>0.001072363472445168</v>
+        <v>0.001538188001963923</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H20">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I20">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J20">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.97320244330446</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N20">
-        <v>0.97320244330446</v>
+        <v>108.050464</v>
       </c>
       <c r="O20">
-        <v>0.02824554930805219</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P20">
-        <v>0.02824554930805219</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q20">
-        <v>1.486494354175803</v>
+        <v>57.65337449140622</v>
       </c>
       <c r="R20">
-        <v>1.486494354175803</v>
+        <v>518.8803704226559</v>
       </c>
       <c r="S20">
-        <v>0.0009982296076950863</v>
+        <v>0.03002665308597615</v>
       </c>
       <c r="T20">
-        <v>0.0009982296076950863</v>
+        <v>0.03002665308597614</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H21">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I21">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J21">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.877625490142341</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N21">
-        <v>0.877625490142341</v>
+        <v>1.966766</v>
       </c>
       <c r="O21">
-        <v>0.02547159044489152</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P21">
-        <v>0.02547159044489152</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q21">
-        <v>1.340507666367655</v>
+        <v>1.049423505807111</v>
       </c>
       <c r="R21">
-        <v>1.340507666367655</v>
+        <v>9.444811552264001</v>
       </c>
       <c r="S21">
-        <v>0.0009001947690897067</v>
+        <v>0.0005465538804469455</v>
       </c>
       <c r="T21">
-        <v>0.0009001947690897067</v>
+        <v>0.0005465538804469454</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.69835919013492</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H22">
-        <v>5.69835919013492</v>
+        <v>4.802204</v>
       </c>
       <c r="I22">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J22">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>30.9110121915341</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N22">
-        <v>30.9110121915341</v>
+        <v>2.236249</v>
       </c>
       <c r="O22">
-        <v>0.8971396701936101</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P22">
-        <v>0.8971396701936101</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q22">
-        <v>176.1420503980009</v>
+        <v>1.193213765866222</v>
       </c>
       <c r="R22">
-        <v>176.1420503980009</v>
+        <v>10.738923892796</v>
       </c>
       <c r="S22">
-        <v>0.1182851514864278</v>
+        <v>0.0006214417823958728</v>
       </c>
       <c r="T22">
-        <v>0.1182851514864278</v>
+        <v>0.0006214417823958726</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.69835919013492</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H23">
-        <v>5.69835919013492</v>
+        <v>4.802204</v>
       </c>
       <c r="I23">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J23">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.647754508802609</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N23">
-        <v>0.647754508802609</v>
+        <v>3.375662</v>
       </c>
       <c r="O23">
-        <v>0.01879997532247603</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P23">
-        <v>0.01879997532247603</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q23">
-        <v>3.691137858186678</v>
+        <v>1.801179728783111</v>
       </c>
       <c r="R23">
-        <v>3.691137858186678</v>
+        <v>16.210617559048</v>
       </c>
       <c r="S23">
-        <v>0.002478719872548135</v>
+        <v>0.0009380786352709456</v>
       </c>
       <c r="T23">
-        <v>0.002478719872548135</v>
+        <v>0.0009380786352709454</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.69835919013492</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H24">
-        <v>5.69835919013492</v>
+        <v>4.802204</v>
       </c>
       <c r="I24">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J24">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.04547765709317</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N24">
-        <v>1.04547765709317</v>
+        <v>2.938577</v>
       </c>
       <c r="O24">
-        <v>0.03034321473097013</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P24">
-        <v>0.03034321473097013</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q24">
-        <v>5.95750721537759</v>
+        <v>1.567960691523111</v>
       </c>
       <c r="R24">
-        <v>5.95750721537759</v>
+        <v>14.111646223708</v>
       </c>
       <c r="S24">
-        <v>0.004000661067928745</v>
+        <v>0.0008166150230084023</v>
       </c>
       <c r="T24">
-        <v>0.004000661067928745</v>
+        <v>0.0008166150230084022</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.69835919013492</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H25">
-        <v>5.69835919013492</v>
+        <v>4.802204</v>
       </c>
       <c r="I25">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J25">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.97320244330446</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N25">
-        <v>0.97320244330446</v>
+        <v>3.081851</v>
       </c>
       <c r="O25">
-        <v>0.02824554930805219</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P25">
-        <v>0.02824554930805219</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q25">
-        <v>5.545657086665728</v>
+        <v>1.644408577733778</v>
       </c>
       <c r="R25">
-        <v>5.545657086665728</v>
+        <v>14.799677199604</v>
       </c>
       <c r="S25">
-        <v>0.003724090227778355</v>
+        <v>0.0008564301106533767</v>
       </c>
       <c r="T25">
-        <v>0.003724090227778355</v>
+        <v>0.0008564301106533765</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H26">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I26">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J26">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.877625490142341</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N26">
-        <v>0.877625490142341</v>
+        <v>108.050464</v>
       </c>
       <c r="O26">
-        <v>0.02547159044489152</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P26">
-        <v>0.02547159044489152</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q26">
-        <v>5.001025277249273</v>
+        <v>207.2834098572445</v>
       </c>
       <c r="R26">
-        <v>5.001025277249273</v>
+        <v>1865.5506887152</v>
       </c>
       <c r="S26">
-        <v>0.003358352143456136</v>
+        <v>0.1079559885811964</v>
       </c>
       <c r="T26">
-        <v>0.003358352143456136</v>
+        <v>0.1079559885811964</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.8730655585187</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H27">
-        <v>14.8730655585187</v>
+        <v>17.26555</v>
       </c>
       <c r="I27">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J27">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>30.9110121915341</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N27">
-        <v>30.9110121915341</v>
+        <v>1.966766</v>
       </c>
       <c r="O27">
-        <v>0.8971396701936101</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P27">
-        <v>0.8971396701936101</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q27">
-        <v>459.7415108048575</v>
+        <v>3.773032967922223</v>
       </c>
       <c r="R27">
-        <v>459.7415108048575</v>
+        <v>33.9572967113</v>
       </c>
       <c r="S27">
-        <v>0.3087314705788672</v>
+        <v>0.001965046330924459</v>
       </c>
       <c r="T27">
-        <v>0.3087314705788672</v>
+        <v>0.001965046330924459</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.8730655585187</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H28">
-        <v>14.8730655585187</v>
+        <v>17.26555</v>
       </c>
       <c r="I28">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J28">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.647754508802609</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N28">
-        <v>0.647754508802609</v>
+        <v>2.236249</v>
       </c>
       <c r="O28">
-        <v>0.01879997532247603</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P28">
-        <v>0.01879997532247603</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q28">
-        <v>9.634095275247281</v>
+        <v>4.290007657994445</v>
       </c>
       <c r="R28">
-        <v>9.634095275247281</v>
+        <v>38.61006892195</v>
       </c>
       <c r="S28">
-        <v>0.006469610274732199</v>
+        <v>0.002234293704733298</v>
       </c>
       <c r="T28">
-        <v>0.006469610274732199</v>
+        <v>0.002234293704733298</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.8730655585187</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H29">
-        <v>14.8730655585187</v>
+        <v>17.26555</v>
       </c>
       <c r="I29">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J29">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.04547765709317</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N29">
-        <v>1.04547765709317</v>
+        <v>3.375662</v>
       </c>
       <c r="O29">
-        <v>0.03034321473097013</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P29">
-        <v>0.03034321473097013</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q29">
-        <v>15.54945773391325</v>
+        <v>6.475851227122223</v>
       </c>
       <c r="R29">
-        <v>15.54945773391325</v>
+        <v>58.28266104410001</v>
       </c>
       <c r="S29">
-        <v>0.01044196975924728</v>
+        <v>0.003372710443205302</v>
       </c>
       <c r="T29">
-        <v>0.01044196975924728</v>
+        <v>0.003372710443205302</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.8730655585187</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H30">
-        <v>14.8730655585187</v>
+        <v>17.26555</v>
       </c>
       <c r="I30">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J30">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.97320244330446</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N30">
-        <v>0.97320244330446</v>
+        <v>2.938577</v>
       </c>
       <c r="O30">
-        <v>0.02824554930805219</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P30">
-        <v>0.02824554930805219</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q30">
-        <v>14.47450374097781</v>
+        <v>5.637349791372222</v>
       </c>
       <c r="R30">
-        <v>14.47450374097781</v>
+        <v>50.73614812235</v>
       </c>
       <c r="S30">
-        <v>0.009720102972707636</v>
+        <v>0.002936007614525065</v>
       </c>
       <c r="T30">
-        <v>0.009720102972707636</v>
+        <v>0.002936007614525064</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.8730655585187</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H31">
-        <v>14.8730655585187</v>
+        <v>17.26555</v>
       </c>
       <c r="I31">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J31">
-        <v>0.3441286578178406</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.877625490142341</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N31">
-        <v>0.877625490142341</v>
+        <v>3.081851</v>
       </c>
       <c r="O31">
-        <v>0.02547159044489152</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P31">
-        <v>0.02547159044489152</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q31">
-        <v>13.05298145071415</v>
+        <v>5.912205837005557</v>
       </c>
       <c r="R31">
-        <v>13.05298145071415</v>
+        <v>53.20985253305001</v>
       </c>
       <c r="S31">
-        <v>0.008765504232286251</v>
+        <v>0.003079156340920005</v>
       </c>
       <c r="T31">
-        <v>0.008765504232286251</v>
+        <v>0.003079156340920004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H32">
+        <v>49.295213</v>
+      </c>
+      <c r="I32">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J32">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>36.01682133333333</v>
+      </c>
+      <c r="N32">
+        <v>108.050464</v>
+      </c>
+      <c r="O32">
+        <v>0.888210824651586</v>
+      </c>
+      <c r="P32">
+        <v>0.8882108246515859</v>
+      </c>
+      <c r="Q32">
+        <v>591.8189597365368</v>
+      </c>
+      <c r="R32">
+        <v>5326.370637628831</v>
+      </c>
+      <c r="S32">
+        <v>0.3082272763819075</v>
+      </c>
+      <c r="T32">
+        <v>0.3082272763819074</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H33">
+        <v>49.295213</v>
+      </c>
+      <c r="I33">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J33">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6555886666666667</v>
+      </c>
+      <c r="N33">
+        <v>1.966766</v>
+      </c>
+      <c r="O33">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="P33">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="Q33">
+        <v>10.77246098790645</v>
+      </c>
+      <c r="R33">
+        <v>96.952148891158</v>
+      </c>
+      <c r="S33">
+        <v>0.005610442611894187</v>
+      </c>
+      <c r="T33">
+        <v>0.005610442611894186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H34">
+        <v>49.295213</v>
+      </c>
+      <c r="I34">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J34">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.7454163333333333</v>
+      </c>
+      <c r="N34">
+        <v>2.236249</v>
+      </c>
+      <c r="O34">
+        <v>0.01838271206698645</v>
+      </c>
+      <c r="P34">
+        <v>0.01838271206698644</v>
+      </c>
+      <c r="Q34">
+        <v>12.24848564178189</v>
+      </c>
+      <c r="R34">
+        <v>110.236370776037</v>
+      </c>
+      <c r="S34">
+        <v>0.006379176109616376</v>
+      </c>
+      <c r="T34">
+        <v>0.006379176109616374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H35">
+        <v>49.295213</v>
+      </c>
+      <c r="I35">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J35">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.125220666666667</v>
+      </c>
+      <c r="N35">
+        <v>3.375662</v>
+      </c>
+      <c r="O35">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="P35">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="Q35">
+        <v>18.48933081177844</v>
+      </c>
+      <c r="R35">
+        <v>166.403977306006</v>
+      </c>
+      <c r="S35">
+        <v>0.009629492236571077</v>
+      </c>
+      <c r="T35">
+        <v>0.009629492236571075</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H36">
+        <v>49.295213</v>
+      </c>
+      <c r="I36">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J36">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.9795256666666666</v>
+      </c>
+      <c r="N36">
+        <v>2.938577</v>
+      </c>
+      <c r="O36">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="P36">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="Q36">
+        <v>16.09530879243344</v>
+      </c>
+      <c r="R36">
+        <v>144.857779131901</v>
+      </c>
+      <c r="S36">
+        <v>0.008382653360456802</v>
+      </c>
+      <c r="T36">
+        <v>0.0083826533604568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H37">
+        <v>49.295213</v>
+      </c>
+      <c r="I37">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J37">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.027283666666667</v>
+      </c>
+      <c r="N37">
+        <v>3.081851</v>
+      </c>
+      <c r="O37">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="P37">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="Q37">
+        <v>16.88005571991811</v>
+      </c>
+      <c r="R37">
+        <v>151.920501479263</v>
+      </c>
+      <c r="S37">
+        <v>0.008791360118035755</v>
+      </c>
+      <c r="T37">
+        <v>0.008791360118035753</v>
       </c>
     </row>
   </sheetData>
